--- a/attachments/Outbound 411_PS4.XLSX
+++ b/attachments/Outbound 411_PS4.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="410">
   <si>
     <t>50119549</t>
   </si>
@@ -886,6 +886,15 @@
     <t>RES FIX MF 1Mohm 1pct 0.25W 1600V 200ppm</t>
   </si>
   <si>
+    <t>50156595</t>
+  </si>
+  <si>
+    <t>10110919</t>
+  </si>
+  <si>
+    <t>1010078</t>
+  </si>
+  <si>
     <t>50156878</t>
   </si>
   <si>
@@ -916,12 +925,6 @@
     <t>50159209</t>
   </si>
   <si>
-    <t>10110919</t>
-  </si>
-  <si>
-    <t>1010078</t>
-  </si>
-  <si>
     <t>50159211</t>
   </si>
   <si>
@@ -977,6 +980,111 @@
   </si>
   <si>
     <t>10117094</t>
+  </si>
+  <si>
+    <t>50164778</t>
+  </si>
+  <si>
+    <t>10116224</t>
+  </si>
+  <si>
+    <t>07060-G</t>
+  </si>
+  <si>
+    <t>CBL ASSY COOLANT PUMP 900</t>
+  </si>
+  <si>
+    <t>50165459</t>
+  </si>
+  <si>
+    <t>5914880B</t>
+  </si>
+  <si>
+    <t>900EX ISO TOP OUTPUT 480VAC 60HZ HYB</t>
+  </si>
+  <si>
+    <t>10114646</t>
+  </si>
+  <si>
+    <t>50165561</t>
+  </si>
+  <si>
+    <t>23622-02</t>
+  </si>
+  <si>
+    <t>10117813</t>
+  </si>
+  <si>
+    <t>50165621</t>
+  </si>
+  <si>
+    <t>10318-0</t>
+  </si>
+  <si>
+    <t>TRANSDUCER CURRENT 0-500Arms 1-5000</t>
+  </si>
+  <si>
+    <t>50166199</t>
+  </si>
+  <si>
+    <t>30316-01</t>
+  </si>
+  <si>
+    <t>KIT MATING CONN SET DC IO PNL</t>
+  </si>
+  <si>
+    <t>10118239</t>
+  </si>
+  <si>
+    <t>1010152</t>
+  </si>
+  <si>
+    <t>50166726</t>
+  </si>
+  <si>
+    <t>5914970A</t>
+  </si>
+  <si>
+    <t>KIT POWER BRIDGE 900EX</t>
+  </si>
+  <si>
+    <t>50166846</t>
+  </si>
+  <si>
+    <t>09310-003-P</t>
+  </si>
+  <si>
+    <t>ABC600 480VAC 60HZ CAMLOCKS 300A HYB</t>
+  </si>
+  <si>
+    <t>10118610</t>
+  </si>
+  <si>
+    <t>1011926</t>
+  </si>
+  <si>
+    <t>50166851</t>
+  </si>
+  <si>
+    <t>5913402D</t>
+  </si>
+  <si>
+    <t>10118285</t>
+  </si>
+  <si>
+    <t>1011537</t>
+  </si>
+  <si>
+    <t>50166856</t>
+  </si>
+  <si>
+    <t>24859-02</t>
+  </si>
+  <si>
+    <t>EMB COMP 1.75GHZ VGA_LVDS_HMI 2GB RAM</t>
+  </si>
+  <si>
+    <t>10118796</t>
   </si>
   <si>
     <t>80000933</t>
@@ -1237,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1263,46 +1371,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5669,34 +5777,34 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s">
         <v>292</v>
       </c>
-      <c r="D101" t="s">
+      <c r="H101" t="s">
         <v>293</v>
       </c>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" t="s">
-        <v>294</v>
-      </c>
-      <c r="H101" t="s">
-        <v>138</v>
-      </c>
       <c r="I101" t="s">
         <v>7</v>
       </c>
       <c r="J101" s="3">
-        <v>45952</v>
+        <v>45950</v>
       </c>
       <c r="K101" s="3">
-        <v>45952</v>
+        <v>46008</v>
       </c>
       <c r="L101" s="3">
-        <v>45967</v>
+        <v>46008</v>
       </c>
       <c r="M101" t="s">
         <v>8</v>
@@ -5707,25 +5815,25 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>295</v>
       </c>
       <c r="D102" t="s">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="E102" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H102" t="s">
         <v>138</v>
@@ -5737,7 +5845,7 @@
         <v>45952</v>
       </c>
       <c r="K102" s="3">
-        <v>45967</v>
+        <v>45952</v>
       </c>
       <c r="L102" s="3">
         <v>45967</v>
@@ -5751,25 +5859,25 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D103" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E103" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
         <v>4</v>
       </c>
       <c r="G103" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H103" t="s">
         <v>138</v>
@@ -5781,7 +5889,7 @@
         <v>45952</v>
       </c>
       <c r="K103" s="3">
-        <v>45952</v>
+        <v>45967</v>
       </c>
       <c r="L103" s="3">
         <v>45967</v>
@@ -5795,40 +5903,40 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B104" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="C104" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="D104" t="s">
+        <v>94</v>
+      </c>
+      <c r="E104" s="2">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
         <v>297</v>
       </c>
-      <c r="E104" s="2">
-        <v>5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>4</v>
-      </c>
-      <c r="G104" t="s">
-        <v>298</v>
-      </c>
       <c r="H104" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="I104" t="s">
         <v>7</v>
       </c>
       <c r="J104" s="3">
-        <v>45959</v>
+        <v>45952</v>
       </c>
       <c r="K104" s="3">
-        <v>45960</v>
+        <v>45952</v>
       </c>
       <c r="L104" s="3">
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="M104" t="s">
         <v>8</v>
@@ -5839,40 +5947,40 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
+        <v>298</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
         <v>299</v>
       </c>
-      <c r="B105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" t="s">
-        <v>277</v>
-      </c>
       <c r="D105" t="s">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E105" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
       </c>
       <c r="G105" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="H105" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="I105" t="s">
         <v>7</v>
       </c>
       <c r="J105" s="3">
-        <v>45964</v>
+        <v>45959</v>
       </c>
       <c r="K105" s="3">
-        <v>45964</v>
+        <v>45960</v>
       </c>
       <c r="L105" s="3">
-        <v>45964</v>
+        <v>45960</v>
       </c>
       <c r="M105" t="s">
         <v>8</v>
@@ -5883,16 +5991,16 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="D106" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="E106" s="2">
         <v>1</v>
@@ -5901,22 +6009,22 @@
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="H106" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="I106" t="s">
         <v>7</v>
       </c>
       <c r="J106" s="3">
-        <v>45950</v>
+        <v>45964</v>
       </c>
       <c r="K106" s="3">
-        <v>45968</v>
+        <v>45964</v>
       </c>
       <c r="L106" s="3">
-        <v>45968</v>
+        <v>45964</v>
       </c>
       <c r="M106" t="s">
         <v>8</v>
@@ -5933,34 +6041,34 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="D107" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="E107" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
         <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="I107" t="s">
         <v>7</v>
       </c>
       <c r="J107" s="3">
-        <v>45967</v>
+        <v>45950</v>
       </c>
       <c r="K107" s="3">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="L107" s="3">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="M107" t="s">
         <v>8</v>
@@ -5977,28 +6085,28 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="D108" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="E108" s="2">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F108" t="s">
         <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="H108" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="I108" t="s">
         <v>7</v>
       </c>
       <c r="J108" s="3">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="K108" s="3">
         <v>45967</v>
@@ -6021,34 +6129,34 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="D109" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="E109" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s">
         <v>4</v>
       </c>
       <c r="G109" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="H109" t="s">
-        <v>309</v>
+        <v>66</v>
       </c>
       <c r="I109" t="s">
         <v>7</v>
       </c>
       <c r="J109" s="3">
-        <v>45968</v>
+        <v>45966</v>
       </c>
       <c r="K109" s="3">
-        <v>45968</v>
+        <v>45967</v>
       </c>
       <c r="L109" s="3">
-        <v>45968</v>
+        <v>45967</v>
       </c>
       <c r="M109" t="s">
         <v>8</v>
@@ -6059,40 +6167,40 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
+        <v>306</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>307</v>
+      </c>
+      <c r="D110" t="s">
+        <v>308</v>
+      </c>
+      <c r="E110" s="2">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" t="s">
+        <v>309</v>
+      </c>
+      <c r="H110" t="s">
         <v>310</v>
       </c>
-      <c r="B110" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" t="s">
-        <v>311</v>
-      </c>
-      <c r="D110" t="s">
-        <v>312</v>
-      </c>
-      <c r="E110" s="2">
-        <v>12</v>
-      </c>
-      <c r="F110" t="s">
-        <v>4</v>
-      </c>
-      <c r="G110" t="s">
-        <v>313</v>
-      </c>
-      <c r="H110" t="s">
-        <v>63</v>
-      </c>
       <c r="I110" t="s">
         <v>7</v>
       </c>
       <c r="J110" s="3">
-        <v>45975</v>
+        <v>45968</v>
       </c>
       <c r="K110" s="3">
-        <v>45974</v>
+        <v>45968</v>
       </c>
       <c r="L110" s="3">
-        <v>45974</v>
+        <v>45968</v>
       </c>
       <c r="M110" t="s">
         <v>8</v>
@@ -6103,40 +6211,40 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>312</v>
+      </c>
+      <c r="D111" t="s">
+        <v>313</v>
+      </c>
+      <c r="E111" s="2">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
         <v>314</v>
       </c>
-      <c r="B111" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
-        <v>315</v>
-      </c>
-      <c r="D111" t="s">
-        <v>316</v>
-      </c>
-      <c r="E111" s="2">
-        <v>2</v>
-      </c>
-      <c r="F111" t="s">
-        <v>4</v>
-      </c>
-      <c r="G111" t="s">
-        <v>317</v>
-      </c>
       <c r="H111" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I111" t="s">
         <v>7</v>
       </c>
       <c r="J111" s="3">
-        <v>45995</v>
+        <v>45975</v>
       </c>
       <c r="K111" s="3">
-        <v>45996</v>
+        <v>45974</v>
       </c>
       <c r="L111" s="3">
-        <v>45996</v>
+        <v>45974</v>
       </c>
       <c r="M111" t="s">
         <v>8</v>
@@ -6147,28 +6255,28 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>316</v>
+      </c>
+      <c r="D112" t="s">
+        <v>317</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
         <v>318</v>
       </c>
-      <c r="B112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" t="s">
-        <v>74</v>
-      </c>
-      <c r="D112" t="s">
-        <v>75</v>
-      </c>
-      <c r="E112" s="2">
-        <v>30</v>
-      </c>
-      <c r="F112" t="s">
-        <v>4</v>
-      </c>
-      <c r="G112" t="s">
-        <v>319</v>
-      </c>
       <c r="H112" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="I112" t="s">
         <v>7</v>
@@ -6191,25 +6299,25 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E113" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H113" t="s">
         <v>113</v>
@@ -6235,40 +6343,40 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" t="s">
+        <v>319</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
         <v>320</v>
       </c>
-      <c r="B114" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" t="s">
-        <v>74</v>
-      </c>
-      <c r="D114" t="s">
-        <v>75</v>
-      </c>
-      <c r="E114" s="2">
-        <v>30</v>
-      </c>
-      <c r="F114" t="s">
-        <v>4</v>
-      </c>
-      <c r="G114" t="s">
-        <v>321</v>
-      </c>
       <c r="H114" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="I114" t="s">
         <v>7</v>
       </c>
       <c r="J114" s="3">
-        <v>46000</v>
+        <v>45995</v>
       </c>
       <c r="K114" s="3">
-        <v>45999</v>
+        <v>45996</v>
       </c>
       <c r="L114" s="3">
-        <v>45999</v>
+        <v>45996</v>
       </c>
       <c r="M114" t="s">
         <v>8</v>
@@ -6279,40 +6387,40 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" t="s">
+        <v>321</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>74</v>
+      </c>
+      <c r="D115" t="s">
+        <v>75</v>
+      </c>
+      <c r="E115" s="2">
+        <v>30</v>
+      </c>
+      <c r="F115" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s">
         <v>322</v>
       </c>
-      <c r="B115" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
-        <v>323</v>
-      </c>
-      <c r="D115" t="s">
-        <v>324</v>
-      </c>
-      <c r="E115" s="2">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
-        <v>4</v>
-      </c>
-      <c r="G115" t="s">
-        <v>36</v>
-      </c>
       <c r="H115" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I115" t="s">
         <v>7</v>
       </c>
       <c r="J115" s="3">
-        <v>45664</v>
+        <v>46000</v>
       </c>
       <c r="K115" s="3">
-        <v>45694</v>
+        <v>45999</v>
       </c>
       <c r="L115" s="3">
-        <v>45694</v>
+        <v>45999</v>
       </c>
       <c r="M115" t="s">
         <v>8</v>
@@ -6323,40 +6431,40 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B116" t="s">
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>326</v>
+        <v>178</v>
       </c>
       <c r="D116" t="s">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="E116" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="H116" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I116" t="s">
         <v>7</v>
       </c>
       <c r="J116" s="3">
-        <v>45714</v>
+        <v>46000</v>
       </c>
       <c r="K116" s="3">
-        <v>45714</v>
+        <v>46000</v>
       </c>
       <c r="L116" s="3">
-        <v>45714</v>
+        <v>46000</v>
       </c>
       <c r="M116" t="s">
         <v>8</v>
@@ -6367,40 +6475,40 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B117" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D117" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E117" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F117" t="s">
         <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="H117" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I117" t="s">
         <v>7</v>
       </c>
       <c r="J117" s="3">
-        <v>45748</v>
+        <v>46000</v>
       </c>
       <c r="K117" s="3">
-        <v>45748</v>
+        <v>46000</v>
       </c>
       <c r="L117" s="3">
-        <v>45750</v>
+        <v>46000</v>
       </c>
       <c r="M117" t="s">
         <v>8</v>
@@ -6411,16 +6519,16 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
+        <v>327</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
         <v>328</v>
       </c>
-      <c r="B118" t="s">
-        <v>122</v>
-      </c>
-      <c r="C118" t="s">
-        <v>331</v>
-      </c>
       <c r="D118" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E118" s="2">
         <v>2</v>
@@ -6429,22 +6537,22 @@
         <v>4</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="H118" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I118" t="s">
         <v>7</v>
       </c>
       <c r="J118" s="3">
-        <v>45748</v>
+        <v>46001</v>
       </c>
       <c r="K118" s="3">
-        <v>45748</v>
+        <v>46003</v>
       </c>
       <c r="L118" s="3">
-        <v>45750</v>
+        <v>46003</v>
       </c>
       <c r="M118" t="s">
         <v>8</v>
@@ -6455,40 +6563,40 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
+        <v>332</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="2">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" t="s">
         <v>333</v>
       </c>
-      <c r="D119" t="s">
-        <v>334</v>
-      </c>
-      <c r="E119" s="2">
-        <v>8</v>
-      </c>
-      <c r="F119" t="s">
-        <v>4</v>
-      </c>
-      <c r="G119" t="s">
-        <v>36</v>
-      </c>
       <c r="H119" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="I119" t="s">
         <v>7</v>
       </c>
       <c r="J119" s="3">
-        <v>45748</v>
+        <v>46006</v>
       </c>
       <c r="K119" s="3">
-        <v>45748</v>
+        <v>46003</v>
       </c>
       <c r="L119" s="3">
-        <v>45750</v>
+        <v>46003</v>
       </c>
       <c r="M119" t="s">
         <v>8</v>
@@ -6499,10 +6607,10 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
         <v>335</v>
@@ -6511,28 +6619,28 @@
         <v>336</v>
       </c>
       <c r="E120" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F120" t="s">
         <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="H120" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="I120" t="s">
         <v>7</v>
       </c>
       <c r="J120" s="3">
-        <v>45748</v>
+        <v>46003</v>
       </c>
       <c r="K120" s="3">
-        <v>45749</v>
+        <v>46006</v>
       </c>
       <c r="L120" s="3">
-        <v>45750</v>
+        <v>46006</v>
       </c>
       <c r="M120" t="s">
         <v>8</v>
@@ -6543,40 +6651,40 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="C121" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D121" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="E121" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F121" t="s">
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="H121" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="I121" t="s">
         <v>7</v>
       </c>
       <c r="J121" s="3">
-        <v>45748</v>
+        <v>46003</v>
       </c>
       <c r="K121" s="3">
-        <v>45748</v>
+        <v>46006</v>
       </c>
       <c r="L121" s="3">
-        <v>45750</v>
+        <v>46006</v>
       </c>
       <c r="M121" t="s">
         <v>8</v>
@@ -6587,16 +6695,16 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" t="s">
+        <v>337</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>338</v>
+      </c>
+      <c r="D122" t="s">
         <v>339</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" t="s">
-        <v>340</v>
-      </c>
-      <c r="D122" t="s">
-        <v>341</v>
       </c>
       <c r="E122" s="2">
         <v>2</v>
@@ -6605,22 +6713,22 @@
         <v>4</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="H122" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="I122" t="s">
         <v>7</v>
       </c>
       <c r="J122" s="3">
-        <v>45810</v>
+        <v>46007</v>
       </c>
       <c r="K122" s="3">
-        <v>45810</v>
+        <v>46008</v>
       </c>
       <c r="L122" s="3">
-        <v>45810</v>
+        <v>46008</v>
       </c>
       <c r="M122" t="s">
         <v>8</v>
@@ -6631,40 +6739,40 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
       </c>
       <c r="C123" t="s">
-        <v>342</v>
+        <v>107</v>
       </c>
       <c r="D123" t="s">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="E123" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
         <v>4</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="H123" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="I123" t="s">
         <v>7</v>
       </c>
       <c r="J123" s="3">
-        <v>45810</v>
+        <v>46007</v>
       </c>
       <c r="K123" s="3">
-        <v>45810</v>
+        <v>46008</v>
       </c>
       <c r="L123" s="3">
-        <v>45810</v>
+        <v>46008</v>
       </c>
       <c r="M123" t="s">
         <v>8</v>
@@ -6675,40 +6783,40 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="C124" t="s">
+        <v>343</v>
+      </c>
+      <c r="D124" t="s">
         <v>344</v>
       </c>
-      <c r="D124" t="s">
-        <v>345</v>
-      </c>
       <c r="E124" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
         <v>4</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="H124" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I124" t="s">
         <v>7</v>
       </c>
       <c r="J124" s="3">
-        <v>45810</v>
+        <v>46014</v>
       </c>
       <c r="K124" s="3">
-        <v>45810</v>
+        <v>46009</v>
       </c>
       <c r="L124" s="3">
-        <v>45810</v>
+        <v>46009</v>
       </c>
       <c r="M124" t="s">
         <v>8</v>
@@ -6719,16 +6827,16 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" t="s">
+        <v>345</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
         <v>346</v>
       </c>
-      <c r="B125" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" t="s">
-        <v>264</v>
-      </c>
       <c r="D125" t="s">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="E125" s="2">
         <v>1</v>
@@ -6737,22 +6845,22 @@
         <v>4</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="H125" t="s">
-        <v>36</v>
+        <v>349</v>
       </c>
       <c r="I125" t="s">
         <v>7</v>
       </c>
       <c r="J125" s="3">
-        <v>45882</v>
+        <v>46010</v>
       </c>
       <c r="K125" s="3">
-        <v>45882</v>
+        <v>46010</v>
       </c>
       <c r="L125" s="3">
-        <v>45882</v>
+        <v>46010</v>
       </c>
       <c r="M125" t="s">
         <v>8</v>
@@ -6763,16 +6871,16 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B126" t="s">
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="D126" t="s">
-        <v>265</v>
+        <v>53</v>
       </c>
       <c r="E126" s="2">
         <v>1</v>
@@ -6781,22 +6889,22 @@
         <v>4</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="H126" t="s">
-        <v>36</v>
+        <v>353</v>
       </c>
       <c r="I126" t="s">
         <v>7</v>
       </c>
       <c r="J126" s="3">
-        <v>45882</v>
+        <v>46010</v>
       </c>
       <c r="K126" s="3">
-        <v>45882</v>
+        <v>46010</v>
       </c>
       <c r="L126" s="3">
-        <v>45882</v>
+        <v>46010</v>
       </c>
       <c r="M126" t="s">
         <v>8</v>
@@ -6807,40 +6915,40 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B127" t="s">
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D127" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E127" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>357</v>
       </c>
       <c r="H127" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I127" t="s">
         <v>7</v>
       </c>
       <c r="J127" s="3">
-        <v>45902</v>
+        <v>46010</v>
       </c>
       <c r="K127" s="3">
-        <v>45902</v>
+        <v>46010</v>
       </c>
       <c r="L127" s="3">
-        <v>45902</v>
+        <v>46010</v>
       </c>
       <c r="M127" t="s">
         <v>8</v>
@@ -6851,19 +6959,19 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B128" t="s">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D128" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E128" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
@@ -6878,13 +6986,13 @@
         <v>7</v>
       </c>
       <c r="J128" s="3">
-        <v>45923</v>
+        <v>45664</v>
       </c>
       <c r="K128" s="3">
-        <v>45923</v>
+        <v>45694</v>
       </c>
       <c r="L128" s="3">
-        <v>45923</v>
+        <v>45694</v>
       </c>
       <c r="M128" t="s">
         <v>8</v>
@@ -6895,16 +7003,16 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B129" t="s">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D129" t="s">
-        <v>35</v>
+        <v>363</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
@@ -6922,13 +7030,13 @@
         <v>7</v>
       </c>
       <c r="J129" s="3">
-        <v>45937</v>
+        <v>45714</v>
       </c>
       <c r="K129" s="3">
-        <v>45937</v>
+        <v>45714</v>
       </c>
       <c r="L129" s="3">
-        <v>45937</v>
+        <v>45714</v>
       </c>
       <c r="M129" t="s">
         <v>8</v>
@@ -6939,16 +7047,16 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B130" t="s">
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D130" t="s">
-        <v>35</v>
+        <v>366</v>
       </c>
       <c r="E130" s="2">
         <v>1</v>
@@ -6966,13 +7074,13 @@
         <v>7</v>
       </c>
       <c r="J130" s="3">
-        <v>45940</v>
+        <v>45748</v>
       </c>
       <c r="K130" s="3">
-        <v>45940</v>
+        <v>45748</v>
       </c>
       <c r="L130" s="3">
-        <v>45940</v>
+        <v>45750</v>
       </c>
       <c r="M130" t="s">
         <v>8</v>
@@ -6983,19 +7091,19 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B131" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="C131" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>368</v>
       </c>
       <c r="E131" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131" t="s">
         <v>4</v>
@@ -7010,13 +7118,13 @@
         <v>7</v>
       </c>
       <c r="J131" s="3">
-        <v>45940</v>
+        <v>45748</v>
       </c>
       <c r="K131" s="3">
-        <v>45940</v>
+        <v>45748</v>
       </c>
       <c r="L131" s="3">
-        <v>45940</v>
+        <v>45750</v>
       </c>
       <c r="M131" t="s">
         <v>8</v>
@@ -7027,19 +7135,19 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B132" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C132" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>370</v>
       </c>
       <c r="E132" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F132" t="s">
         <v>4</v>
@@ -7054,13 +7162,13 @@
         <v>7</v>
       </c>
       <c r="J132" s="3">
-        <v>45940</v>
+        <v>45748</v>
       </c>
       <c r="K132" s="3">
-        <v>45940</v>
+        <v>45748</v>
       </c>
       <c r="L132" s="3">
-        <v>45940</v>
+        <v>45750</v>
       </c>
       <c r="M132" t="s">
         <v>8</v>
@@ -7071,19 +7179,19 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B133" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>372</v>
       </c>
       <c r="E133" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
         <v>4</v>
@@ -7098,18 +7206,590 @@
         <v>7</v>
       </c>
       <c r="J133" s="3">
+        <v>45748</v>
+      </c>
+      <c r="K133" s="3">
+        <v>45749</v>
+      </c>
+      <c r="L133" s="3">
+        <v>45750</v>
+      </c>
+      <c r="M133" t="s">
+        <v>8</v>
+      </c>
+      <c r="N133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" t="s">
+        <v>364</v>
+      </c>
+      <c r="B134" t="s">
+        <v>240</v>
+      </c>
+      <c r="C134" t="s">
+        <v>373</v>
+      </c>
+      <c r="D134" t="s">
+        <v>374</v>
+      </c>
+      <c r="E134" s="2">
+        <v>4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" t="s">
+        <v>36</v>
+      </c>
+      <c r="I134" t="s">
+        <v>7</v>
+      </c>
+      <c r="J134" s="3">
+        <v>45748</v>
+      </c>
+      <c r="K134" s="3">
+        <v>45748</v>
+      </c>
+      <c r="L134" s="3">
+        <v>45750</v>
+      </c>
+      <c r="M134" t="s">
+        <v>8</v>
+      </c>
+      <c r="N134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="s">
+        <v>375</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>376</v>
+      </c>
+      <c r="D135" t="s">
+        <v>377</v>
+      </c>
+      <c r="E135" s="2">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" t="s">
+        <v>36</v>
+      </c>
+      <c r="H135" t="s">
+        <v>36</v>
+      </c>
+      <c r="I135" t="s">
+        <v>7</v>
+      </c>
+      <c r="J135" s="3">
+        <v>45810</v>
+      </c>
+      <c r="K135" s="3">
+        <v>45810</v>
+      </c>
+      <c r="L135" s="3">
+        <v>45810</v>
+      </c>
+      <c r="M135" t="s">
+        <v>8</v>
+      </c>
+      <c r="N135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="s">
+        <v>375</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>378</v>
+      </c>
+      <c r="D136" t="s">
+        <v>379</v>
+      </c>
+      <c r="E136" s="2">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>4</v>
+      </c>
+      <c r="G136" t="s">
+        <v>36</v>
+      </c>
+      <c r="H136" t="s">
+        <v>36</v>
+      </c>
+      <c r="I136" t="s">
+        <v>7</v>
+      </c>
+      <c r="J136" s="3">
+        <v>45810</v>
+      </c>
+      <c r="K136" s="3">
+        <v>45810</v>
+      </c>
+      <c r="L136" s="3">
+        <v>45810</v>
+      </c>
+      <c r="M136" t="s">
+        <v>8</v>
+      </c>
+      <c r="N136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" t="s">
+        <v>375</v>
+      </c>
+      <c r="B137" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137" t="s">
+        <v>380</v>
+      </c>
+      <c r="D137" t="s">
+        <v>381</v>
+      </c>
+      <c r="E137" s="2">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" t="s">
+        <v>36</v>
+      </c>
+      <c r="H137" t="s">
+        <v>36</v>
+      </c>
+      <c r="I137" t="s">
+        <v>7</v>
+      </c>
+      <c r="J137" s="3">
+        <v>45810</v>
+      </c>
+      <c r="K137" s="3">
+        <v>45810</v>
+      </c>
+      <c r="L137" s="3">
+        <v>45810</v>
+      </c>
+      <c r="M137" t="s">
+        <v>8</v>
+      </c>
+      <c r="N137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" t="s">
+        <v>382</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>264</v>
+      </c>
+      <c r="D138" t="s">
+        <v>265</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" t="s">
+        <v>36</v>
+      </c>
+      <c r="H138" t="s">
+        <v>36</v>
+      </c>
+      <c r="I138" t="s">
+        <v>7</v>
+      </c>
+      <c r="J138" s="3">
+        <v>45882</v>
+      </c>
+      <c r="K138" s="3">
+        <v>45882</v>
+      </c>
+      <c r="L138" s="3">
+        <v>45882</v>
+      </c>
+      <c r="M138" t="s">
+        <v>8</v>
+      </c>
+      <c r="N138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" t="s">
+        <v>383</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>264</v>
+      </c>
+      <c r="D139" t="s">
+        <v>265</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139" t="s">
+        <v>36</v>
+      </c>
+      <c r="H139" t="s">
+        <v>36</v>
+      </c>
+      <c r="I139" t="s">
+        <v>7</v>
+      </c>
+      <c r="J139" s="3">
+        <v>45882</v>
+      </c>
+      <c r="K139" s="3">
+        <v>45882</v>
+      </c>
+      <c r="L139" s="3">
+        <v>45882</v>
+      </c>
+      <c r="M139" t="s">
+        <v>8</v>
+      </c>
+      <c r="N139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" t="s">
+        <v>384</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>385</v>
+      </c>
+      <c r="D140" t="s">
+        <v>386</v>
+      </c>
+      <c r="E140" s="2">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>4</v>
+      </c>
+      <c r="G140" t="s">
+        <v>36</v>
+      </c>
+      <c r="H140" t="s">
+        <v>36</v>
+      </c>
+      <c r="I140" t="s">
+        <v>7</v>
+      </c>
+      <c r="J140" s="3">
+        <v>45902</v>
+      </c>
+      <c r="K140" s="3">
+        <v>45902</v>
+      </c>
+      <c r="L140" s="3">
+        <v>45902</v>
+      </c>
+      <c r="M140" t="s">
+        <v>8</v>
+      </c>
+      <c r="N140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" t="s">
+        <v>387</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>388</v>
+      </c>
+      <c r="D141" t="s">
+        <v>389</v>
+      </c>
+      <c r="E141" s="2">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>4</v>
+      </c>
+      <c r="G141" t="s">
+        <v>36</v>
+      </c>
+      <c r="H141" t="s">
+        <v>36</v>
+      </c>
+      <c r="I141" t="s">
+        <v>7</v>
+      </c>
+      <c r="J141" s="3">
+        <v>45923</v>
+      </c>
+      <c r="K141" s="3">
+        <v>45923</v>
+      </c>
+      <c r="L141" s="3">
+        <v>45923</v>
+      </c>
+      <c r="M141" t="s">
+        <v>8</v>
+      </c>
+      <c r="N141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" t="s">
+        <v>390</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>391</v>
+      </c>
+      <c r="D142" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142" t="s">
+        <v>36</v>
+      </c>
+      <c r="H142" t="s">
+        <v>36</v>
+      </c>
+      <c r="I142" t="s">
+        <v>7</v>
+      </c>
+      <c r="J142" s="3">
+        <v>45937</v>
+      </c>
+      <c r="K142" s="3">
+        <v>45937</v>
+      </c>
+      <c r="L142" s="3">
+        <v>45937</v>
+      </c>
+      <c r="M142" t="s">
+        <v>8</v>
+      </c>
+      <c r="N142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" t="s">
+        <v>392</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>391</v>
+      </c>
+      <c r="D143" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>4</v>
+      </c>
+      <c r="G143" t="s">
+        <v>36</v>
+      </c>
+      <c r="H143" t="s">
+        <v>36</v>
+      </c>
+      <c r="I143" t="s">
+        <v>7</v>
+      </c>
+      <c r="J143" s="3">
+        <v>45940</v>
+      </c>
+      <c r="K143" s="3">
+        <v>45940</v>
+      </c>
+      <c r="L143" s="3">
+        <v>45940</v>
+      </c>
+      <c r="M143" t="s">
+        <v>8</v>
+      </c>
+      <c r="N143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" t="s">
+        <v>393</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>391</v>
+      </c>
+      <c r="D144" t="s">
+        <v>35</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s">
+        <v>36</v>
+      </c>
+      <c r="H144" t="s">
+        <v>36</v>
+      </c>
+      <c r="I144" t="s">
+        <v>7</v>
+      </c>
+      <c r="J144" s="3">
+        <v>45940</v>
+      </c>
+      <c r="K144" s="3">
+        <v>45940</v>
+      </c>
+      <c r="L144" s="3">
+        <v>45940</v>
+      </c>
+      <c r="M144" t="s">
+        <v>8</v>
+      </c>
+      <c r="N144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" t="s">
+        <v>394</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>391</v>
+      </c>
+      <c r="D145" t="s">
+        <v>35</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" t="s">
+        <v>36</v>
+      </c>
+      <c r="H145" t="s">
+        <v>36</v>
+      </c>
+      <c r="I145" t="s">
+        <v>7</v>
+      </c>
+      <c r="J145" s="3">
+        <v>45940</v>
+      </c>
+      <c r="K145" s="3">
+        <v>45940</v>
+      </c>
+      <c r="L145" s="3">
+        <v>45940</v>
+      </c>
+      <c r="M145" t="s">
+        <v>8</v>
+      </c>
+      <c r="N145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" t="s">
+        <v>395</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>391</v>
+      </c>
+      <c r="D146" t="s">
+        <v>35</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>4</v>
+      </c>
+      <c r="G146" t="s">
+        <v>36</v>
+      </c>
+      <c r="H146" t="s">
+        <v>36</v>
+      </c>
+      <c r="I146" t="s">
+        <v>7</v>
+      </c>
+      <c r="J146" s="3">
         <v>45953</v>
       </c>
-      <c r="K133" s="3">
+      <c r="K146" s="3">
         <v>45953</v>
       </c>
-      <c r="L133" s="3">
+      <c r="L146" s="3">
         <v>45953</v>
       </c>
-      <c r="M133" t="s">
-        <v>8</v>
-      </c>
-      <c r="N133" t="s">
+      <c r="M146" t="s">
+        <v>8</v>
+      </c>
+      <c r="N146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/attachments/Outbound 411_PS4.XLSX
+++ b/attachments/Outbound 411_PS4.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="412">
   <si>
     <t>50119549</t>
   </si>
@@ -1085,6 +1085,12 @@
   </si>
   <si>
     <t>10118796</t>
+  </si>
+  <si>
+    <t>50170625</t>
+  </si>
+  <si>
+    <t>10122213</t>
   </si>
   <si>
     <t>80000933</t>
@@ -1345,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1371,46 +1377,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6965,34 +6971,34 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" t="s">
         <v>359</v>
       </c>
-      <c r="D128" t="s">
-        <v>360</v>
-      </c>
-      <c r="E128" s="2">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>4</v>
-      </c>
-      <c r="G128" t="s">
-        <v>36</v>
-      </c>
       <c r="H128" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="I128" t="s">
         <v>7</v>
       </c>
       <c r="J128" s="3">
-        <v>45664</v>
+        <v>46043</v>
       </c>
       <c r="K128" s="3">
-        <v>45694</v>
+        <v>46050</v>
       </c>
       <c r="L128" s="3">
-        <v>45694</v>
+        <v>46050</v>
       </c>
       <c r="M128" t="s">
         <v>8</v>
@@ -7003,19 +7009,19 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
+        <v>360</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
         <v>361</v>
       </c>
-      <c r="B129" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>362</v>
       </c>
-      <c r="D129" t="s">
-        <v>363</v>
-      </c>
       <c r="E129" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F129" t="s">
         <v>4</v>
@@ -7030,13 +7036,13 @@
         <v>7</v>
       </c>
       <c r="J129" s="3">
-        <v>45714</v>
+        <v>45664</v>
       </c>
       <c r="K129" s="3">
-        <v>45714</v>
+        <v>45694</v>
       </c>
       <c r="L129" s="3">
-        <v>45714</v>
+        <v>45694</v>
       </c>
       <c r="M129" t="s">
         <v>8</v>
@@ -7047,16 +7053,16 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
+        <v>363</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
         <v>364</v>
       </c>
-      <c r="B130" t="s">
-        <v>1</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>365</v>
-      </c>
-      <c r="D130" t="s">
-        <v>366</v>
       </c>
       <c r="E130" s="2">
         <v>1</v>
@@ -7074,13 +7080,13 @@
         <v>7</v>
       </c>
       <c r="J130" s="3">
-        <v>45748</v>
+        <v>45714</v>
       </c>
       <c r="K130" s="3">
-        <v>45748</v>
+        <v>45714</v>
       </c>
       <c r="L130" s="3">
-        <v>45750</v>
+        <v>45714</v>
       </c>
       <c r="M130" t="s">
         <v>8</v>
@@ -7091,10 +7097,10 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
         <v>367</v>
@@ -7103,7 +7109,7 @@
         <v>368</v>
       </c>
       <c r="E131" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" t="s">
         <v>4</v>
@@ -7135,10 +7141,10 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C132" t="s">
         <v>369</v>
@@ -7147,7 +7153,7 @@
         <v>370</v>
       </c>
       <c r="E132" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F132" t="s">
         <v>4</v>
@@ -7179,10 +7185,10 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B133" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
         <v>371</v>
@@ -7191,7 +7197,7 @@
         <v>372</v>
       </c>
       <c r="E133" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F133" t="s">
         <v>4</v>
@@ -7209,7 +7215,7 @@
         <v>45748</v>
       </c>
       <c r="K133" s="3">
-        <v>45749</v>
+        <v>45748</v>
       </c>
       <c r="L133" s="3">
         <v>45750</v>
@@ -7223,10 +7229,10 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B134" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C134" t="s">
         <v>373</v>
@@ -7235,7 +7241,7 @@
         <v>374</v>
       </c>
       <c r="E134" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
         <v>4</v>
@@ -7253,7 +7259,7 @@
         <v>45748</v>
       </c>
       <c r="K134" s="3">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="L134" s="3">
         <v>45750</v>
@@ -7267,19 +7273,19 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" t="s">
+        <v>366</v>
+      </c>
+      <c r="B135" t="s">
+        <v>240</v>
+      </c>
+      <c r="C135" t="s">
         <v>375</v>
       </c>
-      <c r="B135" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>376</v>
       </c>
-      <c r="D135" t="s">
-        <v>377</v>
-      </c>
       <c r="E135" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
@@ -7294,13 +7300,13 @@
         <v>7</v>
       </c>
       <c r="J135" s="3">
-        <v>45810</v>
+        <v>45748</v>
       </c>
       <c r="K135" s="3">
-        <v>45810</v>
+        <v>45748</v>
       </c>
       <c r="L135" s="3">
-        <v>45810</v>
+        <v>45750</v>
       </c>
       <c r="M135" t="s">
         <v>8</v>
@@ -7311,10 +7317,10 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C136" t="s">
         <v>378</v>
@@ -7323,7 +7329,7 @@
         <v>379</v>
       </c>
       <c r="E136" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F136" t="s">
         <v>4</v>
@@ -7355,10 +7361,10 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B137" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
         <v>380</v>
@@ -7367,7 +7373,7 @@
         <v>381</v>
       </c>
       <c r="E137" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F137" t="s">
         <v>4</v>
@@ -7399,19 +7405,19 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
+        <v>377</v>
+      </c>
+      <c r="B138" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" t="s">
         <v>382</v>
       </c>
-      <c r="B138" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
-        <v>264</v>
-      </c>
       <c r="D138" t="s">
-        <v>265</v>
+        <v>383</v>
       </c>
       <c r="E138" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138" t="s">
         <v>4</v>
@@ -7426,13 +7432,13 @@
         <v>7</v>
       </c>
       <c r="J138" s="3">
-        <v>45882</v>
+        <v>45810</v>
       </c>
       <c r="K138" s="3">
-        <v>45882</v>
+        <v>45810</v>
       </c>
       <c r="L138" s="3">
-        <v>45882</v>
+        <v>45810</v>
       </c>
       <c r="M138" t="s">
         <v>8</v>
@@ -7443,7 +7449,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B139" t="s">
         <v>1</v>
@@ -7487,19 +7493,19 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B140" t="s">
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>385</v>
+        <v>264</v>
       </c>
       <c r="D140" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="E140" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="s">
         <v>4</v>
@@ -7514,13 +7520,13 @@
         <v>7</v>
       </c>
       <c r="J140" s="3">
-        <v>45902</v>
+        <v>45882</v>
       </c>
       <c r="K140" s="3">
-        <v>45902</v>
+        <v>45882</v>
       </c>
       <c r="L140" s="3">
-        <v>45902</v>
+        <v>45882</v>
       </c>
       <c r="M140" t="s">
         <v>8</v>
@@ -7531,19 +7537,19 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
+        <v>386</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
         <v>387</v>
       </c>
-      <c r="B141" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>388</v>
       </c>
-      <c r="D141" t="s">
-        <v>389</v>
-      </c>
       <c r="E141" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F141" t="s">
         <v>4</v>
@@ -7558,13 +7564,13 @@
         <v>7</v>
       </c>
       <c r="J141" s="3">
-        <v>45923</v>
+        <v>45902</v>
       </c>
       <c r="K141" s="3">
-        <v>45923</v>
+        <v>45902</v>
       </c>
       <c r="L141" s="3">
-        <v>45923</v>
+        <v>45902</v>
       </c>
       <c r="M141" t="s">
         <v>8</v>
@@ -7575,19 +7581,19 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
+        <v>389</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
         <v>390</v>
       </c>
-      <c r="B142" t="s">
-        <v>1</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>391</v>
       </c>
-      <c r="D142" t="s">
-        <v>35</v>
-      </c>
       <c r="E142" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F142" t="s">
         <v>4</v>
@@ -7602,13 +7608,13 @@
         <v>7</v>
       </c>
       <c r="J142" s="3">
-        <v>45937</v>
+        <v>45923</v>
       </c>
       <c r="K142" s="3">
-        <v>45937</v>
+        <v>45923</v>
       </c>
       <c r="L142" s="3">
-        <v>45937</v>
+        <v>45923</v>
       </c>
       <c r="M142" t="s">
         <v>8</v>
@@ -7625,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -7646,13 +7652,13 @@
         <v>7</v>
       </c>
       <c r="J143" s="3">
-        <v>45940</v>
+        <v>45937</v>
       </c>
       <c r="K143" s="3">
-        <v>45940</v>
+        <v>45937</v>
       </c>
       <c r="L143" s="3">
-        <v>45940</v>
+        <v>45937</v>
       </c>
       <c r="M143" t="s">
         <v>8</v>
@@ -7663,13 +7669,13 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
+        <v>394</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
         <v>393</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>391</v>
       </c>
       <c r="D144" t="s">
         <v>35</v>
@@ -7707,13 +7713,13 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B145" t="s">
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D145" t="s">
         <v>35</v>
@@ -7751,13 +7757,13 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B146" t="s">
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -7778,18 +7784,62 @@
         <v>7</v>
       </c>
       <c r="J146" s="3">
+        <v>45940</v>
+      </c>
+      <c r="K146" s="3">
+        <v>45940</v>
+      </c>
+      <c r="L146" s="3">
+        <v>45940</v>
+      </c>
+      <c r="M146" t="s">
+        <v>8</v>
+      </c>
+      <c r="N146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" t="s">
+        <v>397</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>393</v>
+      </c>
+      <c r="D147" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>36</v>
+      </c>
+      <c r="H147" t="s">
+        <v>36</v>
+      </c>
+      <c r="I147" t="s">
+        <v>7</v>
+      </c>
+      <c r="J147" s="3">
         <v>45953</v>
       </c>
-      <c r="K146" s="3">
+      <c r="K147" s="3">
         <v>45953</v>
       </c>
-      <c r="L146" s="3">
+      <c r="L147" s="3">
         <v>45953</v>
       </c>
-      <c r="M146" t="s">
-        <v>8</v>
-      </c>
-      <c r="N146" t="s">
+      <c r="M147" t="s">
+        <v>8</v>
+      </c>
+      <c r="N147" t="s">
         <v>9</v>
       </c>
     </row>
